--- a/fiil250.xlsx
+++ b/fiil250.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2272EA-1477-4050-80F7-6E3CFEFA0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1B11A-AE8E-40E3-B2C4-AAED171B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="250FİİL" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$B$249</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,9 +117,6 @@
     <t>رَكِبَ</t>
   </si>
   <si>
-    <t>Ziyaretetmek</t>
-  </si>
-  <si>
     <t>زَارَ</t>
   </si>
   <si>
@@ -243,9 +243,6 @@
     <t>ظَلَمَ</t>
   </si>
   <si>
-    <t>Ortayaçıkmak</t>
-  </si>
-  <si>
     <t>ظَهَرَ</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>قَالَ</t>
   </si>
   <si>
-    <t>Ayagakalkmak</t>
-  </si>
-  <si>
     <t>قَامَ</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>كَتَبَ</t>
   </si>
   <si>
-    <t>Yalansöylemek</t>
-  </si>
-  <si>
     <t>كَذبَ</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>مَرِضَ</t>
   </si>
   <si>
-    <t>Şakayapmak</t>
-  </si>
-  <si>
     <t>مَزَحَ</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
     <t>مَنَعَ</t>
   </si>
   <si>
-    <t>Ayırtetmek</t>
-  </si>
-  <si>
     <t>مَيَّزَ</t>
   </si>
   <si>
@@ -537,9 +522,6 @@
     <t>نَزَّلَ</t>
   </si>
   <si>
-    <t>Pişmanolmak</t>
-  </si>
-  <si>
     <t>نَدِمَ</t>
   </si>
   <si>
@@ -615,9 +597,6 @@
     <t>تَكَسَّرَ</t>
   </si>
   <si>
-    <t>Abdestalmak</t>
-  </si>
-  <si>
     <t>تَوَضَّأَ</t>
   </si>
   <si>
@@ -780,15 +759,9 @@
     <t>رَجَا</t>
   </si>
   <si>
-    <t>Resimçizmek</t>
-  </si>
-  <si>
     <t>رَسَمَ</t>
   </si>
   <si>
-    <t>Rukuetmek</t>
-  </si>
-  <si>
     <t>رَكَعَ</t>
   </si>
   <si>
@@ -822,9 +795,6 @@
     <t>ضَيَّعَ</t>
   </si>
   <si>
-    <t>Tavafetmek</t>
-  </si>
-  <si>
     <t>طَافَ</t>
   </si>
   <si>
@@ -1074,9 +1044,6 @@
     <t>وَقَّعَ</t>
   </si>
   <si>
-    <t>Vukubulmak</t>
-  </si>
-  <si>
     <t>وَقَعَ</t>
   </si>
   <si>
@@ -1480,6 +1447,42 @@
   </si>
   <si>
     <t>Göç etmek</t>
+  </si>
+  <si>
+    <t>Ortaya çıkmak</t>
+  </si>
+  <si>
+    <t>Ayağa kalkmak</t>
+  </si>
+  <si>
+    <t>Yalan söylemek</t>
+  </si>
+  <si>
+    <t>Şaka yapmak</t>
+  </si>
+  <si>
+    <t>Ayırt etmek</t>
+  </si>
+  <si>
+    <t>Pişman olmak</t>
+  </si>
+  <si>
+    <t>Abdest almak</t>
+  </si>
+  <si>
+    <t>Resim çizmek</t>
+  </si>
+  <si>
+    <t>Vuku bulmak</t>
+  </si>
+  <si>
+    <t>Tavaf etmek</t>
+  </si>
+  <si>
+    <t>Ruku etmek</t>
+  </si>
+  <si>
+    <t>Ziyaret etmek</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1871,7 @@
   <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.75"/>
@@ -1880,10 +1883,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1963,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,231 +2003,231 @@
     </row>
     <row r="16" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>22</v>
@@ -2232,1645 +2235,1646 @@
     </row>
     <row r="45" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>167</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>193</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>346</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B249" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fiil250.xlsx
+++ b/fiil250.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1B11A-AE8E-40E3-B2C4-AAED171B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2272EA-1477-4050-80F7-6E3CFEFA0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="250FİİL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$B$249</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,6 +114,9 @@
     <t>رَكِبَ</t>
   </si>
   <si>
+    <t>Ziyaretetmek</t>
+  </si>
+  <si>
     <t>زَارَ</t>
   </si>
   <si>
@@ -243,6 +243,9 @@
     <t>ظَلَمَ</t>
   </si>
   <si>
+    <t>Ortayaçıkmak</t>
+  </si>
+  <si>
     <t>ظَهَرَ</t>
   </si>
   <si>
@@ -309,6 +312,9 @@
     <t>قَالَ</t>
   </si>
   <si>
+    <t>Ayagakalkmak</t>
+  </si>
+  <si>
     <t>قَامَ</t>
   </si>
   <si>
@@ -369,6 +375,9 @@
     <t>كَتَبَ</t>
   </si>
   <si>
+    <t>Yalansöylemek</t>
+  </si>
+  <si>
     <t>كَذبَ</t>
   </si>
   <si>
@@ -474,6 +483,9 @@
     <t>مَرِضَ</t>
   </si>
   <si>
+    <t>Şakayapmak</t>
+  </si>
+  <si>
     <t>مَزَحَ</t>
   </si>
   <si>
@@ -495,6 +507,9 @@
     <t>مَنَعَ</t>
   </si>
   <si>
+    <t>Ayırtetmek</t>
+  </si>
+  <si>
     <t>مَيَّزَ</t>
   </si>
   <si>
@@ -522,6 +537,9 @@
     <t>نَزَّلَ</t>
   </si>
   <si>
+    <t>Pişmanolmak</t>
+  </si>
+  <si>
     <t>نَدِمَ</t>
   </si>
   <si>
@@ -597,6 +615,9 @@
     <t>تَكَسَّرَ</t>
   </si>
   <si>
+    <t>Abdestalmak</t>
+  </si>
+  <si>
     <t>تَوَضَّأَ</t>
   </si>
   <si>
@@ -759,9 +780,15 @@
     <t>رَجَا</t>
   </si>
   <si>
+    <t>Resimçizmek</t>
+  </si>
+  <si>
     <t>رَسَمَ</t>
   </si>
   <si>
+    <t>Rukuetmek</t>
+  </si>
+  <si>
     <t>رَكَعَ</t>
   </si>
   <si>
@@ -795,6 +822,9 @@
     <t>ضَيَّعَ</t>
   </si>
   <si>
+    <t>Tavafetmek</t>
+  </si>
+  <si>
     <t>طَافَ</t>
   </si>
   <si>
@@ -1044,6 +1074,9 @@
     <t>وَقَّعَ</t>
   </si>
   <si>
+    <t>Vukubulmak</t>
+  </si>
+  <si>
     <t>وَقَعَ</t>
   </si>
   <si>
@@ -1447,42 +1480,6 @@
   </si>
   <si>
     <t>Göç etmek</t>
-  </si>
-  <si>
-    <t>Ortaya çıkmak</t>
-  </si>
-  <si>
-    <t>Ayağa kalkmak</t>
-  </si>
-  <si>
-    <t>Yalan söylemek</t>
-  </si>
-  <si>
-    <t>Şaka yapmak</t>
-  </si>
-  <si>
-    <t>Ayırt etmek</t>
-  </si>
-  <si>
-    <t>Pişman olmak</t>
-  </si>
-  <si>
-    <t>Abdest almak</t>
-  </si>
-  <si>
-    <t>Resim çizmek</t>
-  </si>
-  <si>
-    <t>Vuku bulmak</t>
-  </si>
-  <si>
-    <t>Tavaf etmek</t>
-  </si>
-  <si>
-    <t>Ruku etmek</t>
-  </si>
-  <si>
-    <t>Ziyaret etmek</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1868,7 @@
   <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.75"/>
@@ -1883,10 +1880,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1966,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,231 +2000,231 @@
     </row>
     <row r="16" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>470</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>22</v>
@@ -2235,1646 +2232,1645 @@
     </row>
     <row r="45" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>471</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>472</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>473</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>474</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>475</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>476</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>477</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>480</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>479</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>478</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B249" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fiil250.xlsx
+++ b/fiil250.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2272EA-1477-4050-80F7-6E3CFEFA0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221101B2-AE4A-4EEB-B5BB-C0E8A92F5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="250FİİL" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$D$309</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="592">
   <si>
     <t>Almak</t>
   </si>
@@ -114,12 +117,6 @@
     <t>رَكِبَ</t>
   </si>
   <si>
-    <t>Ziyaretetmek</t>
-  </si>
-  <si>
-    <t>زَارَ</t>
-  </si>
-  <si>
     <t>Kaldırmak</t>
   </si>
   <si>
@@ -264,15 +261,9 @@
     <t>عَادَ</t>
   </si>
   <si>
-    <t>Muameleetmek- davranmak</t>
-  </si>
-  <si>
     <t>عَامَلَ</t>
   </si>
   <si>
-    <t>Sözleşmeyapmak</t>
-  </si>
-  <si>
     <t>عَاهَدَ</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>قَالَ</t>
   </si>
   <si>
-    <t>Ayagakalkmak</t>
-  </si>
-  <si>
     <t>قَامَ</t>
   </si>
   <si>
@@ -735,15 +723,9 @@
     <t>جَادَلَ</t>
   </si>
   <si>
-    <t>Caizolmak</t>
-  </si>
-  <si>
     <t>جَازَ</t>
   </si>
   <si>
-    <t>Hacyapmak</t>
-  </si>
-  <si>
     <t>حَجَّ</t>
   </si>
   <si>
@@ -753,9 +735,6 @@
     <t>حَرُمَ</t>
   </si>
   <si>
-    <t>Tesbihetmek</t>
-  </si>
-  <si>
     <t>سَبَّحَ</t>
   </si>
   <si>
@@ -1113,9 +1092,6 @@
     <t>Isırmak</t>
   </si>
   <si>
-    <t>عَضَّ</t>
-  </si>
-  <si>
     <t>Susamak</t>
   </si>
   <si>
@@ -1194,9 +1170,6 @@
     <t>عَدَّ</t>
   </si>
   <si>
-    <t>Işkenceetmek</t>
-  </si>
-  <si>
     <t>عَذَّبَ</t>
   </si>
   <si>
@@ -1480,13 +1453,1204 @@
   </si>
   <si>
     <t>Göç etmek</t>
+  </si>
+  <si>
+    <t>Sözleşme yapmak</t>
+  </si>
+  <si>
+    <t>Muamele etmek- davranmak</t>
+  </si>
+  <si>
+    <t>Ayaga kalkmak</t>
+  </si>
+  <si>
+    <t>Caiz olmak</t>
+  </si>
+  <si>
+    <t>Hac yapmak</t>
+  </si>
+  <si>
+    <t>Tesbih etmek</t>
+  </si>
+  <si>
+    <t>Işkence etmek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>عَلِمَ</t>
+  </si>
+  <si>
+    <t>سَجَدَ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>كَلَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>سَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>لَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>قَرَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>خَزَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>زِنَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>بَدَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>اَجَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>مَرَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>مَلَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>مَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>دَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>شَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>قَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>مَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>رَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>شَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>صَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>بَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>قَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>لَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>فَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>رَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>عَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ضَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>مَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>سَّ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>جَدَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>جَبَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>صَلَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>قَفَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>فَقَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>زَنَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ضَعَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>هَبَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>يَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>تُمَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>قَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>لَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>قَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>مَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>عَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>دَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>زَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>رَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>سَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>رَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>عَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>شَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>جَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ءَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>خَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>فَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>نَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="8"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>مَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>دَعَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رَجَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ا</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>حَمِ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ىَ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>رَمَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>نَهَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>شَفَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>حَكَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>جَرَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>سَعَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="9"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>شَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>طَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>لَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>نَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>كَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>فَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>أَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>تَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>وَ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>قَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arabic Typesetting"/>
+        <family val="4"/>
+      </rPr>
+      <t>ى</t>
+    </r>
+  </si>
+  <si>
+    <t>Yardım etti</t>
+  </si>
+  <si>
+    <t>Yazdı</t>
+  </si>
+  <si>
+    <t>Öldürdü</t>
+  </si>
+  <si>
+    <t>Çıktı</t>
+  </si>
+  <si>
+    <t>Girdi</t>
+  </si>
+  <si>
+    <t>Dövdü</t>
+  </si>
+  <si>
+    <t>İçti</t>
+  </si>
+  <si>
+    <t>Secde etti</t>
+  </si>
+  <si>
+    <t>Yedi</t>
+  </si>
+  <si>
+    <t>Sordu</t>
+  </si>
+  <si>
+    <t>Okudu</t>
+  </si>
+  <si>
+    <t>Utandırdı</t>
+  </si>
+  <si>
+    <t>Zina yaptı</t>
+  </si>
+  <si>
+    <t>Yarattı</t>
+  </si>
+  <si>
+    <t>Geldi</t>
+  </si>
+  <si>
+    <t>Emretti</t>
+  </si>
+  <si>
+    <t>umut etti</t>
+  </si>
+  <si>
+    <t>Yayılma,uzama,genişleme</t>
+  </si>
+  <si>
+    <t>Yarıldı</t>
+  </si>
+  <si>
+    <t>Geçti</t>
+  </si>
+  <si>
+    <t>Sulamak , püskütmek</t>
+  </si>
+  <si>
+    <t>… içine dökmek,akıtmak</t>
+  </si>
+  <si>
+    <t>Aşağı olmak ,sayıca az olmak</t>
+  </si>
+  <si>
+    <t>Dokunmak,ihlal etmek,çiğnemek</t>
+  </si>
+  <si>
+    <t>Gerekmek</t>
+  </si>
+  <si>
+    <t>Ulaşmak,varmak</t>
+  </si>
+  <si>
+    <t>…den haberi olmak</t>
+  </si>
+  <si>
+    <t>Buna göre</t>
+  </si>
+  <si>
+    <t>O alçak gönüllüydü</t>
+  </si>
+  <si>
+    <t>Vermek,bağışta bulunmak</t>
+  </si>
+  <si>
+    <t>Yetim olmak,öksüz olmak</t>
+  </si>
+  <si>
+    <t>Söylemek,demek</t>
+  </si>
+  <si>
+    <t>Kalkmak dikilmek</t>
+  </si>
+  <si>
+    <t>Geri dönmek</t>
+  </si>
+  <si>
+    <t>Ziyaret etmek</t>
+  </si>
+  <si>
+    <t>Yönelmek</t>
+  </si>
+  <si>
+    <t>Yaşamak,ömür sürmek</t>
+  </si>
+  <si>
+    <t>Getirmek,gelmek,varmak</t>
+  </si>
+  <si>
+    <t>Korkmak</t>
+  </si>
+  <si>
+    <t>Yatmak,uyumak,uykuya dalmak</t>
+  </si>
+  <si>
+    <t>Davet etmek,çağırtmak</t>
+  </si>
+  <si>
+    <t>…den rica etmek</t>
+  </si>
+  <si>
+    <t>Kızmak,sinirlenmek</t>
+  </si>
+  <si>
+    <t>Atmak,suçlamak,fırlatmak</t>
+  </si>
+  <si>
+    <t>Yasaklamak,engel olmak</t>
+  </si>
+  <si>
+    <t>Tedavi etmek</t>
+  </si>
+  <si>
+    <t>Smylemek,anlatmak</t>
+  </si>
+  <si>
+    <t>Koşmak,acele etmek</t>
+  </si>
+  <si>
+    <t>Çabalamak</t>
+  </si>
+  <si>
+    <t>Kızartmak,ızgara yapmak</t>
+  </si>
+  <si>
+    <t>Katlamak , dürmek</t>
+  </si>
+  <si>
+    <t>Bükmek</t>
+  </si>
+  <si>
+    <t>Geçmek , uzaklaşmak</t>
+  </si>
+  <si>
+    <t>Dağlamak,ütülemek</t>
+  </si>
+  <si>
+    <t>Yapmak,uygulamak,yerine getirmek</t>
+  </si>
+  <si>
+    <t>Gelmek,varmak</t>
+  </si>
+  <si>
+    <t>Korumak ,muhafaza etmek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +2691,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="8"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="9"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFC00000"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1542,7 +2751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1565,11 +2774,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,6 +2883,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1865,25 +3182,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B249"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B314" sqref="B314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1899,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -1963,7 +3280,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,10 +3333,10 @@
     </row>
     <row r="18" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,23 +3344,23 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>472</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2051,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>475</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,18 +3389,18 @@
     </row>
     <row r="25" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2091,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>476</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2112,10 +3429,10 @@
     </row>
     <row r="30" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2123,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,10 +3493,10 @@
     </row>
     <row r="38" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2187,7 +3504,7 @@
         <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>474</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,1661 +3533,2145 @@
     </row>
     <row r="43" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>481</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>183</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>479</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>478</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>468</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>231</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>237</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>275</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>467</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>313</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>465</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>316</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>464</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>463</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>334</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>461</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="4" t="s">
+    </row>
+    <row r="213" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
+      <c r="B213" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
+    <row r="215" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
+    </row>
+    <row r="217" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
+    </row>
+    <row r="218" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+    <row r="219" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+    </row>
+    <row r="220" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
+      <c r="B220" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
+    </row>
+    <row r="222" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="B222" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B220" s="2" t="s">
+    <row r="224" spans="1:4" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="B224" s="2" t="s">
-        <v>171</v>
+        <v>444</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>53</v>
+        <v>425</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>52</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>435</v>
+        <v>96</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>434</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>100</v>
+        <v>430</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>440</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>61</v>
+        <v>434</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>60</v>
+        <v>441</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A248" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A249" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A250" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A251" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A252" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A253" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A254" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A255" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A256" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A257" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A258" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A259" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A260" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A261" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A262" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A263" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A264" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A265" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A266" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A267" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A268" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A269" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A270" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A271" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A273" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A274" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A275" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A276" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A277" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A278" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A279" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A280" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A281" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A282" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A283" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A284" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A285" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A286" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A287" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A288" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A289" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A290" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A291" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A292" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A293" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A294" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A295" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A296" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A297" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A298" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A299" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A300" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A301" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A302" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A303" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A304" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A305" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A306" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A307" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A308" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A309" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D309" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fiil250.xlsx
+++ b/fiil250.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA1284D-FE59-414A-91F7-65A506F05D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A202EE-9212-4953-8410-0A94732F7C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$327</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -5305,7 +5305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5333,9 +5333,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5355,39 +5352,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -5399,742 +5389,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6417,14 +5671,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6432,2901 +5686,2901 @@
       <c r="A1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>784</v>
+        <v>200</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>674</v>
+        <v>145</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>306</v>
+        <v>613</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1128</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>726</v>
+        <v>161</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>830</v>
+        <v>623</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>685</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>701</v>
+        <v>147</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>1460</v>
+        <v>249</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="1.4">
+      <c r="A14" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>1167</v>
+        <v>128</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>739</v>
+        <v>646</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>284</v>
+        <v>650</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>653</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>291</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>853</v>
+        <v>99</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>1310</v>
+        <v>660</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>258</v>
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>311</v>
+        <v>49</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>803</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>272</v>
+        <v>669</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>649</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>1007</v>
+        <v>225</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>1487</v>
+        <v>210</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>120</v>
+        <v>219</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>119</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>1314</v>
+        <v>689</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="23" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>835</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>127</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>126</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>130</v>
+        <v>239</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>132</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>715</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>135</v>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>723</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A46" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A49" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>1406</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>1208</v>
+        <v>740</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>1569</v>
+        <v>746</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>1064</v>
+        <v>743</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>1122</v>
+        <v>122</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>1142</v>
+        <v>752</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>791</v>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>628</v>
+        <v>204</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>1142</v>
+        <v>774</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>269</v>
+        <v>778</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>151</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
+        <v>785</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>300</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>1480</v>
+        <v>117</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>276</v>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>4</v>
+    <row r="76" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>283</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="6" t="s">
+        <v>813</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>292</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>310</v>
+        <v>45</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>1201</v>
+        <v>207</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>155</v>
+        <v>823</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>286</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="6" t="s">
+        <v>831</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>289</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>729</v>
+        <v>597</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>290</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>1274</v>
+        <v>847</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>1079</v>
+        <v>844</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>1280</v>
+        <v>850</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>760</v>
+        <v>854</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>1591</v>
+        <v>212</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>1564</v>
+        <v>41</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>309</v>
+        <v>199</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>1585</v>
+        <v>168</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>1412</v>
+        <v>86</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>308</v>
+        <v>872</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>794</v>
+        <v>189</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>1335</v>
+        <v>16</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>800</v>
+        <v>47</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>896</v>
+        <v>35</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>1248</v>
+        <v>30</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>1328</v>
+        <v>889</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>28</v>
+        <v>893</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>298</v>
+        <v>896</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>1470</v>
+        <v>900</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>899</v>
+        <v>191</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>297</v>
+        <v>78</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>885</v>
+        <v>912</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="18" t="s">
-        <v>625</v>
+        <v>916</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>742</v>
+        <v>920</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A114" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A115" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>1019</v>
+        <v>924</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A115" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A117" s="10" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>1339</v>
+        <v>930</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A119" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>24</v>
+        <v>934</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>266</v>
+        <v>187</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A123" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>1266</v>
+        <v>243</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A125" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>735</v>
+        <v>943</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>1239</v>
+        <v>950</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A128" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>866</v>
+        <v>953</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A128" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>1283</v>
+        <v>958</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>860</v>
+        <v>203</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>1385</v>
+        <v>208</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A133" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>1182</v>
+        <v>968</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A135" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>1445</v>
+        <v>970</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>992</v>
+        <v>15</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B137" s="18" t="s">
-        <v>1164</v>
+        <v>177</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B138" s="18" t="s">
-        <v>307</v>
+        <v>110</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>164</v>
+        <v>985</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A140" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>1022</v>
+        <v>34</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A144" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>1474</v>
+        <v>211</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>1261</v>
+        <v>152</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A147" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A148" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>809</v>
+        <v>94</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A147" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>1403</v>
+        <v>1008</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
-        <v>893</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>264</v>
+        <v>202</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A151" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>42</v>
+        <v>190</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A153" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>754</v>
+        <v>1023</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>692</v>
+        <v>74</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>878</v>
+        <v>31</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B157" s="18" t="s">
-        <v>1176</v>
+        <v>1032</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>662</v>
+        <v>214</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A160" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A161" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>1266</v>
+        <v>1039</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A162" s="9" t="s">
-        <v>50</v>
+      <c r="A162" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>1307</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>619</v>
+        <v>104</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B164" s="18" t="s">
-        <v>1320</v>
+        <v>1048</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>1054</v>
+        <v>27</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B166" s="18" t="s">
-        <v>1378</v>
+        <v>237</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A167" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>709</v>
+      <c r="A167" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A168" s="9" t="s">
-        <v>1058</v>
+      <c r="A168" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>1047</v>
+        <v>1065</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>1370</v>
+        <v>59</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A172" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A173" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>677</v>
+        <v>247</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>1212</v>
+        <v>68</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A175" s="9" t="s">
-        <v>1573</v>
+      <c r="A175" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>1572</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>797</v>
+        <v>1083</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>1149</v>
+        <v>176</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A178" s="9" t="s">
-        <v>1096</v>
+      <c r="A178" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B179" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
-        <v>263</v>
+        <v>1090</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A180" s="9" t="s">
+        <v>1096</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A181" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A182" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>1099</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>612</v>
+        <v>178</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A185" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>1544</v>
+        <v>1106</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A186" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>942</v>
+      <c r="A186" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>234</v>
+        <v>77</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B188" s="18" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A189" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>241</v>
+        <v>63</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A190" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>940</v>
+        <v>75</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>1535</v>
+        <v>123</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A193" s="9" t="s">
-        <v>1343</v>
+      <c r="A193" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>1342</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A195" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>835</v>
+        <v>1129</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A197" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A198" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="B198" s="18" t="s">
-        <v>923</v>
+        <v>1136</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B199" s="18" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A204" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B204" s="18" t="s">
-        <v>781</v>
+        <v>1146</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A200" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A201" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A203" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>53</v>
+        <v>1165</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A206" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A207" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>1561</v>
+        <v>205</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B209" s="18" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A210" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B210" s="18" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A211" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>299</v>
+        <v>194</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A213" s="9" t="s">
-        <v>1428</v>
+      <c r="A213" s="10" t="s">
+        <v>1186</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>1427</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A214" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B214" s="18" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>281</v>
+        <v>1189</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A215" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A216" s="9" t="s">
-        <v>1231</v>
+      <c r="A216" s="10" t="s">
+        <v>1195</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>304</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B217" s="18" t="s">
-        <v>1361</v>
+        <v>109</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A218" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B218" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
-        <v>62</v>
+        <v>144</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A219" s="9" t="s">
+        <v>1205</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>61</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B220" s="18" t="s">
-        <v>773</v>
+        <v>1209</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B221" s="18" t="s">
-        <v>672</v>
+        <v>226</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A222" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B222" s="18" t="s">
-        <v>1234</v>
+        <v>1215</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B223" s="18" t="s">
-        <v>1113</v>
+        <v>60</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A224" s="9" t="s">
-        <v>1245</v>
+      <c r="A224" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="s">
-        <v>280</v>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A225" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B226" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
-        <v>65</v>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A226" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A227" s="9" t="s">
+        <v>1231</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A228" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A229" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B229" s="17" t="s">
-        <v>1531</v>
+        <v>174</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A230" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>988</v>
+        <v>82</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B231" s="16" t="s">
-        <v>260</v>
+        <v>282</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A232" s="9" t="s">
-        <v>1525</v>
+      <c r="A232" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>1524</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A233" s="9" t="s">
-        <v>1205</v>
+      <c r="A233" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>1204</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B234" s="17" t="s">
-        <v>1220</v>
+        <v>1245</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A235" s="9" t="s">
-        <v>1400</v>
+      <c r="A235" s="10" t="s">
+        <v>1249</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>1399</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A236" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B236" s="18" t="s">
-        <v>303</v>
+        <v>85</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B237" s="18" t="s">
-        <v>812</v>
+        <v>181</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A238" s="9" t="s">
-        <v>1496</v>
+      <c r="A238" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B239" s="16" t="s">
-        <v>72</v>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A239" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A240" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>1026</v>
+        <v>105</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>976</v>
+        <v>163</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A242" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>1102</v>
+        <v>169</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B243" s="18" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A244" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A245" s="9" t="s">
-        <v>1110</v>
+      <c r="A245" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>1109</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>1076</v>
+        <v>159</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A247" s="9" t="s">
-        <v>1485</v>
+      <c r="A247" s="10" t="s">
+        <v>1284</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>1484</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A248" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="B248" s="18" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A249" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B249" s="18" t="s">
-        <v>1576</v>
+        <v>1288</v>
+      </c>
+      <c r="B248" s="17" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>1367</v>
+        <v>95</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>1453</v>
+        <v>1298</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A252" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>1236</v>
+        <v>1301</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="B253" s="18" t="s">
-        <v>751</v>
+        <v>245</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A254" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>1695</v>
+      <c r="A254" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A255" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B255" s="18" t="s">
-        <v>1541</v>
+        <v>1311</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A256" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B256" s="18" t="s">
-        <v>1255</v>
+        <v>1315</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B257" s="18" t="s">
-        <v>1420</v>
+        <v>171</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A258" s="9" t="s">
-        <v>85</v>
+      <c r="A258" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>1252</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A259" s="9" t="s">
-        <v>183</v>
+      <c r="A259" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>1089</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A260" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>869</v>
+        <v>301</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A261" s="9" t="s">
-        <v>87</v>
+      <c r="A261" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>1271</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A262" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B262" s="18" t="s">
-        <v>834</v>
+        <v>102</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A263" s="9" t="s">
-        <v>1090</v>
+      <c r="A263" s="10" t="s">
+        <v>1336</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A264" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B264" s="17" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A265" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B265" s="17" t="s">
-        <v>1225</v>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A266" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>906</v>
+        <v>1340</v>
+      </c>
+      <c r="B266" s="17" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A268" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B267" s="17" t="s">
+      <c r="B268" s="17" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B268" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A269" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>1001</v>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A270" s="9" t="s">
-        <v>81</v>
+      <c r="A270" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>1434</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A271" s="9" t="s">
-        <v>95</v>
+      <c r="A271" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>1291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B272" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A273" s="10" t="s">
-        <v>872</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>869</v>
+        <v>57</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A274" s="9" t="s">
-        <v>98</v>
+      <c r="A274" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>1579</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="B275" s="18" t="s">
-        <v>949</v>
+        <v>172</v>
+      </c>
+      <c r="B275" s="17" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A276" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B276" s="18" t="s">
-        <v>1031</v>
+        <v>23</v>
+      </c>
+      <c r="B276" s="17" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A277" s="9" t="s">
-        <v>101</v>
+      <c r="A277" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>1447</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A278" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B278" s="18" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A279" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>718</v>
+        <v>222</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A279" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B279" s="17" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A280" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>656</v>
+        <v>240</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A282" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B282" s="17" t="s">
-        <v>1330</v>
+        <v>238</v>
+      </c>
+      <c r="B281" s="17" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A282" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>1016</v>
+        <v>111</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A284" s="10" t="s">
-        <v>920</v>
-      </c>
-      <c r="B284" s="18" t="s">
-        <v>919</v>
+        <v>1386</v>
+      </c>
+      <c r="B284" s="17" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A285" s="9" t="s">
-        <v>89</v>
+      <c r="A285" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B286" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
-        <v>91</v>
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A286" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A287" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A288" s="9" t="s">
+        <v>1400</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>90</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B289" s="16" t="s">
-        <v>92</v>
+        <v>284</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A290" s="9" t="s">
-        <v>188</v>
+      <c r="A290" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A291" s="9" t="s">
-        <v>193</v>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A291" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A292" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B292" s="17" t="s">
-        <v>1264</v>
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A293" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B293" s="18" t="s">
-        <v>1041</v>
+        <v>137</v>
+      </c>
+      <c r="B293" s="17" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A294" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B294" s="18" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B295" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A296" s="9" t="s">
-        <v>1539</v>
+        <v>153</v>
+      </c>
+      <c r="B294" s="17" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A295" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="17" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A296" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>1538</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A297" s="9" t="s">
-        <v>1517</v>
+      <c r="A297" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>1516</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A298" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="B298" s="18" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="s">
-        <v>194</v>
+        <v>1424</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A299" s="9" t="s">
+        <v>1428</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A300" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B300" s="17" t="s">
-        <v>302</v>
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A301" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B301" s="18" t="s">
-        <v>732</v>
+        <v>192</v>
+      </c>
+      <c r="B301" s="17" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A302" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B302" s="18" t="s">
-        <v>903</v>
+        <v>81</v>
+      </c>
+      <c r="B302" s="17" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A303" s="9" t="s">
-        <v>1192</v>
+      <c r="A303" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>1191</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A304" s="9" t="s">
-        <v>192</v>
+      <c r="A304" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A305" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B305" s="17" t="s">
-        <v>1188</v>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A306" s="10" t="s">
-        <v>934</v>
-      </c>
-      <c r="B306" s="18" t="s">
-        <v>933</v>
+        <v>36</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A307" s="9" t="s">
-        <v>1424</v>
+      <c r="A307" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>1423</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A308" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="B308" s="18" t="s">
-        <v>911</v>
+        <v>101</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A309" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="B309" s="18" t="s">
-        <v>777</v>
+        <v>257</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A310" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="B310" s="18" t="s">
-        <v>927</v>
+        <v>83</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A311" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B311" s="18" t="s">
-        <v>961</v>
+        <v>1457</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A312" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B312" s="18" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A313" s="9" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B313" s="17" t="s">
-        <v>1512</v>
+        <v>1461</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A314" s="9" t="s">
-        <v>109</v>
+      <c r="A314" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>1198</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A315" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B315" s="18" t="s">
-        <v>979</v>
+        <v>89</v>
+      </c>
+      <c r="B315" s="17" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A316" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B316" s="18" t="s">
-        <v>645</v>
+        <v>1471</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A317" s="9" t="s">
-        <v>1298</v>
+      <c r="A317" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A318" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B318" s="17" t="s">
-        <v>1547</v>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A319" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B319" s="18" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A320" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B320" s="17" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="8" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A321" s="9" t="s">
+        <v>1485</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>107</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A322" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B322" s="18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A323" s="9" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B323" s="17" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A324" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B324" s="17" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A325" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B325" s="18" t="s">
-        <v>1007</v>
+        <v>1488</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A326" s="10" t="s">
-        <v>985</v>
-      </c>
-      <c r="B326" s="18" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A327" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="B327" s="18" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A328" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>839</v>
+      <c r="A326" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A329" s="9" t="s">
-        <v>209</v>
+      <c r="A329" s="10" t="s">
+        <v>1500</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>1464</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A330" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="B330" s="18" t="s">
-        <v>843</v>
+        <v>197</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A331" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B331" s="18" t="s">
-        <v>680</v>
+        <v>141</v>
+      </c>
+      <c r="B331" s="17" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A332" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B332" s="18" t="s">
-        <v>995</v>
+        <v>55</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A333" s="9" t="s">
-        <v>1288</v>
+      <c r="A333" s="10" t="s">
+        <v>1513</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>1287</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A334" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>967</v>
+        <v>121</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A335" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B335" s="18" t="s">
-        <v>788</v>
+        <v>1517</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A336" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B336" s="18" t="s">
-        <v>770</v>
+        <v>71</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A337" s="10" t="s">
-        <v>958</v>
-      </c>
-      <c r="B337" s="18" t="s">
-        <v>311</v>
+      <c r="A337" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A338" s="9" t="s">
-        <v>205</v>
+      <c r="A338" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>1173</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A339" s="9" t="s">
-        <v>206</v>
+      <c r="A339" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>1351</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B340" s="17" t="s">
-        <v>1383</v>
+        <v>1532</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A341" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B341" s="18" t="s">
-        <v>819</v>
+        <v>1539</v>
+      </c>
+      <c r="B341" s="17" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A342" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B342" s="18" t="s">
-        <v>964</v>
+        <v>180</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A343" s="9" t="s">
-        <v>1195</v>
+      <c r="A343" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>1191</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A344" s="9" t="s">
-        <v>112</v>
+      <c r="A344" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B345" s="16" t="s">
-        <v>113</v>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A345" s="10" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B345" s="17" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B346" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B347" s="16" t="s">
-        <v>295</v>
+        <v>165</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A347" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A348" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B348" s="18" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A349" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="B349" s="18" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B350" s="16" t="s">
-        <v>1699</v>
+        <v>170</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A350" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A351" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="B351" s="18" t="s">
-        <v>888</v>
+        <v>193</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A352" s="9" t="s">
-        <v>1155</v>
+      <c r="A352" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>1152</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A353" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B353" s="18" t="s">
-        <v>1035</v>
+      <c r="A353" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A354" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B354" s="18" t="s">
-        <v>722</v>
+        <v>69</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A355" s="9" t="s">
+      <c r="A355" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B355" s="17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A357" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" s="17" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A358" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="B355" s="17" t="s">
+      <c r="B358" s="17" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A356" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B356" s="18" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A357" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B357" s="17" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A358" s="9" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B358" s="17" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A360" s="9" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B360" s="17" t="s">
-        <v>1456</v>
+    <row r="359" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A359" s="10" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A361" s="9" t="s">
-        <v>118</v>
+      <c r="A361" s="10" t="s">
+        <v>1596</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>1439</v>
+        <v>1595</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B361">
-      <sortCondition ref="A1:A163"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fiil250.xlsx
+++ b/fiil250.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A202EE-9212-4953-8410-0A94732F7C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD11A97C-18D9-4DBD-B046-D9ABB705312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="250FİİL" sheetId="1" r:id="rId1"/>
+    <sheet name="360FİİL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'250FİİL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'360FİİL'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$327</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1701">
   <si>
     <t>Almak</t>
   </si>
@@ -5139,6 +5139,9 @@
   </si>
   <si>
     <t>Vuku bulmak</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
   </si>
 </sst>
 </file>
@@ -5669,28 +5672,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O5:O6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -5698,7 +5705,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
@@ -5706,7 +5713,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>613</v>
       </c>
@@ -5714,7 +5721,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -5722,7 +5729,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>161</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>231</v>
       </c>
@@ -5738,7 +5745,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
         <v>124</v>
       </c>
@@ -5746,7 +5753,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>623</v>
       </c>
@@ -5754,7 +5761,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>259</v>
       </c>
@@ -5762,7 +5769,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -5770,7 +5777,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>147</v>
       </c>
@@ -5778,7 +5785,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>249</v>
       </c>
@@ -5786,7 +5793,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="1.4">
+    <row r="14" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="1.4">
       <c r="A14" s="26" t="s">
         <v>224</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19" t="s">
         <v>146</v>
       </c>
@@ -5802,7 +5809,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>128</v>
       </c>
@@ -5940,7 +5947,7 @@
     </row>
     <row r="33" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>685</v>
@@ -5948,7 +5955,7 @@
     </row>
     <row r="34" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>685</v>
@@ -6100,7 +6107,7 @@
     </row>
     <row r="53" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>742</v>
@@ -6108,7 +6115,7 @@
     </row>
     <row r="54" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>742</v>
@@ -6346,17 +6353,17 @@
         <v>834</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A84" s="20" t="s">
-        <v>1698</v>
+    <row r="84" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
-        <v>246</v>
+    <row r="85" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="20" t="s">
+        <v>1698</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>835</v>
@@ -6372,7 +6379,7 @@
     </row>
     <row r="87" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>839</v>
@@ -6380,7 +6387,7 @@
     </row>
     <row r="88" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>839</v>
@@ -6444,7 +6451,7 @@
     </row>
     <row r="96" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>86</v>
+        <v>872</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>869</v>
@@ -6452,7 +6459,7 @@
     </row>
     <row r="97" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>872</v>
+        <v>86</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>869</v>
@@ -6468,7 +6475,7 @@
     </row>
     <row r="99" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>878</v>
@@ -6476,7 +6483,7 @@
     </row>
     <row r="100" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>878</v>
@@ -6594,17 +6601,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A115" s="23" t="s">
-        <v>138</v>
+    <row r="115" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A115" s="10" t="s">
+        <v>930</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A116" s="10" t="s">
-        <v>930</v>
+    <row r="116" spans="1:2" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A116" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>927</v>
@@ -6692,7 +6699,7 @@
     </row>
     <row r="127" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>311</v>
@@ -6708,7 +6715,7 @@
     </row>
     <row r="129" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>311</v>
@@ -6868,7 +6875,7 @@
     </row>
     <row r="149" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
-        <v>1008</v>
+        <v>202</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>1007</v>
@@ -6876,7 +6883,7 @@
     </row>
     <row r="150" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
-        <v>202</v>
+        <v>1008</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>1007</v>
@@ -7028,7 +7035,7 @@
     </row>
     <row r="169" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
-        <v>1065</v>
+        <v>59</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>1064</v>
@@ -7036,7 +7043,7 @@
     </row>
     <row r="170" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
-        <v>59</v>
+        <v>1065</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>1064</v>
@@ -7052,7 +7059,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>107</v>
@@ -7060,7 +7067,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>107</v>
@@ -7100,7 +7107,7 @@
     </row>
     <row r="178" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
-        <v>183</v>
+        <v>1090</v>
       </c>
       <c r="B178" s="17" t="s">
         <v>1089</v>
@@ -7108,7 +7115,7 @@
     </row>
     <row r="179" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
-        <v>1090</v>
+        <v>183</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>1089</v>
@@ -7268,7 +7275,7 @@
     </row>
     <row r="199" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>1142</v>
@@ -7276,7 +7283,7 @@
     </row>
     <row r="200" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A200" s="10" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B200" s="17" t="s">
         <v>1142</v>
@@ -7292,7 +7299,7 @@
     </row>
     <row r="202" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>1152</v>
@@ -7300,7 +7307,7 @@
     </row>
     <row r="203" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B203" s="17" t="s">
         <v>1152</v>
@@ -7396,7 +7403,7 @@
     </row>
     <row r="215" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>1191</v>
@@ -7404,7 +7411,7 @@
     </row>
     <row r="216" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A216" s="10" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>1191</v>
@@ -7452,7 +7459,7 @@
     </row>
     <row r="222" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A222" s="10" t="s">
-        <v>1215</v>
+        <v>60</v>
       </c>
       <c r="B222" s="17" t="s">
         <v>310</v>
@@ -7460,25 +7467,25 @@
     </row>
     <row r="223" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
-        <v>60</v>
+        <v>1215</v>
       </c>
       <c r="B223" s="17" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A225" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B224" s="17" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A225" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="17" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -7539,18 +7546,18 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="17" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A234" s="9" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="17" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -7604,7 +7611,7 @@
     </row>
     <row r="241" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>1266</v>
@@ -7612,7 +7619,7 @@
     </row>
     <row r="242" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A242" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B242" s="17" t="s">
         <v>1266</v>
@@ -8132,7 +8139,7 @@
     </row>
     <row r="307" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A307" s="10" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B307" s="17" t="s">
         <v>1447</v>
@@ -8140,7 +8147,7 @@
     </row>
     <row r="308" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A308" s="10" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B308" s="17" t="s">
         <v>1447</v>
@@ -8268,7 +8275,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="B324" s="15" t="s">
         <v>61</v>
@@ -8276,7 +8283,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="B325" s="15" t="s">
         <v>61</v>
@@ -8324,7 +8331,7 @@
     </row>
     <row r="331" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A331" s="10" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B331" s="17" t="s">
         <v>1507</v>
@@ -8332,7 +8339,7 @@
     </row>
     <row r="332" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A332" s="10" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="B332" s="17" t="s">
         <v>1507</v>
@@ -8571,11 +8578,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B361">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
